--- a/信用卡贷后系统/二期需求/本行抵押贷款客户发放信用卡解押时押品控制需求/399-1信用卡中心 本行抵押贷款客户发放信用卡解押时押品控制需求-工作量 -chm.xlsx
+++ b/信用卡贷后系统/二期需求/本行抵押贷款客户发放信用卡解押时押品控制需求/399-1信用卡中心 本行抵押贷款客户发放信用卡解押时押品控制需求-工作量 -chm.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="158">
   <si>
     <t>重庆农村商业银行工作量评估表</t>
   </si>
@@ -490,34 +490,103 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>信用卡与押品关联预警列表查询</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>信用卡与押品关联预警列表页面</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联贷款押品类型信用卡统计表页面</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>建表、菜单、erm添加</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联贷款押品类型信用卡统计表批量字段来源确认</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库信息反馈</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定输入、输出接口</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询核心实时接口</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求决策平台做规则判断</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回决策结果，判断授信额度、若超额则向核心发起降额处理</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回信贷投资系统是否可出库结果</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>押品管理-信用卡与押品关联队列</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>押品管理-信用卡与押品关联 查询接口文档、esb配置</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>押品管理-信用卡与押品关联 删除接口文档、esb配置</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除复核（参考预警管理-待调查队列）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>信用卡与押品关联预警</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>信用卡与押品关联预警列表查询</t>
+    <t>关联贷款押品类型信用卡统计表（按月）</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>信用卡与押品关联预警列表页面</t>
+    <t>关联贷款押品类型信用卡统计表（分支行）</t>
     <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>信用卡与押品关联统计</t>
   </si>
   <si>
     <t>关联贷款押品类型信用卡统计表页面</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>关联贷款押品类型信用卡统计表批量字段来源确认</t>
+    <t>建表、菜单、erm添加</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>关联贷款押品类型信用卡统计表批量</t>
+    <t>批量任务</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>建表、菜单、erm添加</t>
+    <t>李成林</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>调出处理流程（先不忙做）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>冉茂坤</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈海明</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -526,9 +595,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -609,15 +678,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -767,7 +845,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -808,7 +886,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -827,7 +905,7 @@
     <xf numFmtId="31" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -842,69 +920,96 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -914,31 +1019,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1244,16 +1352,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" style="56" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" style="32" customWidth="1"/>
     <col min="3" max="3" width="33.6328125" customWidth="1"/>
     <col min="4" max="4" width="13.6328125" customWidth="1"/>
     <col min="5" max="5" width="11.36328125" customWidth="1"/>
@@ -1261,51 +1369,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="A1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A2" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="A2" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6" ht="27" customHeight="1">
       <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="28"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="27" customHeight="1">
       <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="51"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="18" t="s">
         <v>8</v>
       </c>
@@ -1314,14 +1422,14 @@
       <c r="A5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="52"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="20">
         <v>44186</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="35"/>
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="65" customHeight="1">
@@ -1329,89 +1437,89 @@
         <v>11</v>
       </c>
       <c r="B6" s="19"/>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
     </row>
     <row r="7" spans="1:6" ht="27" customHeight="1">
       <c r="A7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="52"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="21">
-        <f>D54</f>
-        <v>6.4909090909090903</v>
+        <f>D63</f>
+        <v>0</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="31"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:6" ht="27" customHeight="1">
       <c r="A8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="32" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="31"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="40"/>
     </row>
     <row r="9" spans="1:6" ht="35.5" customHeight="1">
       <c r="A9" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="36"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45"/>
     </row>
     <row r="10" spans="1:6" ht="59" customHeight="1">
       <c r="A10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="39"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="48"/>
     </row>
     <row r="11" spans="1:6" ht="27" customHeight="1">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="1:6" ht="64" customHeight="1">
       <c r="A12" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="22"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:6" ht="17" customHeight="1">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
     </row>
     <row r="14" spans="1:6" ht="42">
       <c r="A14" s="18" t="s">
@@ -1431,578 +1539,652 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28">
+    <row r="15" spans="1:6" ht="28" customHeight="1">
       <c r="A15" s="18">
         <v>1</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="65" t="s">
         <v>128</v>
       </c>
       <c r="D15" s="5">
-        <v>9</v>
-      </c>
-      <c r="E15" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="E15" s="68" t="s">
+        <v>154</v>
+      </c>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="15">
       <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="60"/>
+      <c r="C16" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="D16" s="5">
+        <v>2</v>
+      </c>
+      <c r="E16" s="68" t="s">
+        <v>154</v>
+      </c>
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" ht="15">
       <c r="A17" s="18">
         <v>2</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="60"/>
+      <c r="C17" s="66" t="s">
         <v>129</v>
       </c>
       <c r="D17" s="5">
-        <v>6.5</v>
-      </c>
-      <c r="E17" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="E17" s="68" t="s">
+        <v>154</v>
+      </c>
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" ht="15">
       <c r="A18" s="18">
         <v>3</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="61"/>
+      <c r="C18" s="66" t="s">
         <v>131</v>
       </c>
       <c r="D18" s="5">
-        <v>6.5</v>
-      </c>
-      <c r="E18" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="68" t="s">
+        <v>154</v>
+      </c>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="27">
+    <row r="19" spans="1:6" ht="27" customHeight="1">
       <c r="A19" s="18">
         <v>4</v>
       </c>
-      <c r="B19" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" s="58" t="s">
+      <c r="B19" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="67" t="s">
         <v>132</v>
       </c>
       <c r="D19" s="5">
-        <v>6.5</v>
-      </c>
-      <c r="E19" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="E19" s="68" t="s">
+        <v>154</v>
+      </c>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" ht="15">
       <c r="A20" s="18">
         <v>5</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="57" t="s">
-        <v>134</v>
+      <c r="B20" s="63"/>
+      <c r="C20" s="65" t="s">
+        <v>133</v>
       </c>
       <c r="D20" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="E20" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="E20" s="68" t="s">
+        <v>154</v>
+      </c>
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" ht="15">
       <c r="A21" s="18">
         <v>6</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="57" t="s">
+      <c r="B21" s="63"/>
+      <c r="C21" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="68" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" ht="15">
+      <c r="A22" s="26"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" ht="27" customHeight="1">
+      <c r="A23" s="18">
+        <v>7</v>
+      </c>
+      <c r="B23" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D23" s="5">
+        <v>2</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" ht="26">
+      <c r="A24" s="18">
+        <v>8</v>
+      </c>
+      <c r="B24" s="63"/>
+      <c r="C24" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" ht="15">
+      <c r="A25" s="26"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="27">
+        <v>1</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" ht="15">
+      <c r="A26" s="18"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" ht="54" customHeight="1">
+      <c r="A27" s="26"/>
+      <c r="B27" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="27">
+        <v>2</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" ht="26">
+      <c r="A28" s="26"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="27">
+        <v>2</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" ht="15">
+      <c r="A29" s="26"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="27">
+        <v>1</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" ht="15">
+      <c r="A30" s="26"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" ht="42" customHeight="1">
+      <c r="A31" s="26"/>
+      <c r="B31" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="27">
         <v>3</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" ht="27">
-      <c r="A22" s="18">
-        <v>7</v>
-      </c>
-      <c r="B22" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" s="5">
-        <v>3.7</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" ht="26">
-      <c r="A23" s="18">
-        <v>8</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="57" t="s">
+      <c r="E31" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" ht="26">
+      <c r="A32" s="26"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="27">
+        <v>3</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" ht="26">
+      <c r="A33" s="26"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="65" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" ht="15">
+      <c r="A34" s="18">
+        <v>9</v>
+      </c>
+      <c r="B34" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="D23" s="5">
-        <v>3.7</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" ht="15">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="57" t="s">
+      <c r="C34" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" s="5">
+        <v>2</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:6" ht="15">
+      <c r="A35" s="18">
+        <v>10</v>
+      </c>
+      <c r="B35" s="60"/>
+      <c r="C35" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" ht="15">
-      <c r="A25" s="18">
-        <v>9</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="57" t="s">
-        <v>139</v>
-      </c>
-      <c r="D25" s="5">
-        <v>1</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="1:6" ht="15">
-      <c r="A26" s="18">
-        <v>10</v>
-      </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="5">
-        <v>5.9</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" ht="15">
-      <c r="A27" s="18">
+      <c r="D35" s="5">
+        <v>2</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" ht="15">
+      <c r="A36" s="18">
         <v>11</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" ht="15">
-      <c r="A28" s="18">
-        <v>12</v>
-      </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="5">
+      <c r="B36" s="60"/>
+      <c r="C36" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="5">
         <v>2</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" ht="15">
-      <c r="A29" s="18">
-        <v>13</v>
-      </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="5">
-        <v>2</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:6" ht="15">
-      <c r="A30" s="18">
-        <v>14</v>
-      </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="5">
-        <v>7.3</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" ht="15">
-      <c r="A31" s="18">
-        <v>15</v>
-      </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:6" ht="26">
-      <c r="A32" s="18">
-        <v>16</v>
-      </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="5">
-        <v>3</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" ht="26">
-      <c r="A33" s="18">
-        <v>17</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="5">
-        <v>3</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" ht="26">
-      <c r="A34" s="18">
-        <v>18</v>
-      </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="5">
-        <v>3</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="1:6" ht="26">
-      <c r="A35" s="18">
-        <v>19</v>
-      </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="5">
-        <v>3</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:6" ht="26">
-      <c r="A36" s="18">
-        <v>20</v>
-      </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="5">
-        <v>3</v>
-      </c>
-      <c r="E36" s="6"/>
+      <c r="E36" s="33" t="s">
+        <v>156</v>
+      </c>
       <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" ht="26">
       <c r="A37" s="18">
-        <v>21</v>
-      </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="6" t="s">
-        <v>46</v>
+        <v>12</v>
+      </c>
+      <c r="B37" s="60"/>
+      <c r="C37" s="65" t="s">
+        <v>142</v>
       </c>
       <c r="D37" s="5">
-        <v>3</v>
-      </c>
-      <c r="E37" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>156</v>
+      </c>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" ht="26">
+    <row r="38" spans="1:6" ht="15">
       <c r="A38" s="18">
-        <v>22</v>
-      </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="6" t="s">
-        <v>47</v>
+        <v>13</v>
+      </c>
+      <c r="B38" s="61"/>
+      <c r="C38" s="65" t="s">
+        <v>143</v>
       </c>
       <c r="D38" s="5">
-        <v>3</v>
-      </c>
-      <c r="E38" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>156</v>
+      </c>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" ht="26">
+    <row r="39" spans="1:6" ht="15">
       <c r="A39" s="18">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B39" s="18"/>
-      <c r="C39" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="5">
-        <v>3</v>
-      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="5"/>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" ht="26">
+    <row r="40" spans="1:6" ht="15">
       <c r="A40" s="18">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B40" s="18"/>
-      <c r="C40" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="5">
-        <v>3</v>
-      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="5"/>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" ht="26">
+    <row r="41" spans="1:6" ht="15">
       <c r="A41" s="18">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B41" s="18"/>
-      <c r="C41" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="5">
-        <v>3</v>
-      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="5"/>
       <c r="E41" s="6"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" ht="26">
+    <row r="42" spans="1:6" ht="15">
       <c r="A42" s="18">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B42" s="18"/>
-      <c r="C42" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" s="5">
-        <v>3</v>
-      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="5"/>
       <c r="E42" s="6"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" ht="26">
+    <row r="43" spans="1:6" ht="15">
       <c r="A43" s="18">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B43" s="18"/>
-      <c r="C43" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="5">
-        <v>4</v>
-      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="5"/>
       <c r="E43" s="6"/>
       <c r="F43" s="7"/>
     </row>
     <row r="44" spans="1:6" ht="15">
       <c r="A44" s="18">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B44" s="18"/>
-      <c r="C44" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="5">
-        <v>3</v>
-      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="5"/>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
     </row>
     <row r="45" spans="1:6" ht="15">
       <c r="A45" s="18">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B45" s="18"/>
-      <c r="C45" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="5">
-        <v>3</v>
-      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="5"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
     </row>
     <row r="46" spans="1:6" ht="15">
       <c r="A46" s="18">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B46" s="18"/>
-      <c r="C46" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" s="5">
-        <v>4.2</v>
-      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="5"/>
       <c r="E46" s="6"/>
       <c r="F46" s="7"/>
     </row>
     <row r="47" spans="1:6" ht="15">
       <c r="A47" s="18">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B47" s="18"/>
-      <c r="C47" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="5">
-        <v>4</v>
-      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="5"/>
       <c r="E47" s="6"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:6" ht="26">
+    <row r="48" spans="1:6" ht="15">
       <c r="A48" s="18">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B48" s="18"/>
-      <c r="C48" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" s="5">
-        <v>3</v>
-      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="5"/>
       <c r="E48" s="6"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" ht="26">
+    <row r="49" spans="1:6" ht="15">
       <c r="A49" s="18">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B49" s="18"/>
-      <c r="C49" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="5">
-        <v>3</v>
-      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="5"/>
       <c r="E49" s="6"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" ht="26">
+    <row r="50" spans="1:6" ht="15">
       <c r="A50" s="18">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B50" s="18"/>
-      <c r="C50" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D50" s="5">
-        <v>4</v>
-      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="5"/>
       <c r="E50" s="6"/>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="1:6" ht="26">
+    <row r="51" spans="1:6" ht="15">
       <c r="A51" s="18">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B51" s="18"/>
-      <c r="C51" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51" s="5">
-        <v>4</v>
-      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="5"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="1:6" ht="26">
+    <row r="52" spans="1:6" ht="15">
       <c r="A52" s="18">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B52" s="18"/>
-      <c r="C52" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D52" s="5">
-        <v>4</v>
-      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="5"/>
       <c r="E52" s="6"/>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:6" ht="26">
+    <row r="53" spans="1:6" ht="15">
       <c r="A53" s="18">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B53" s="18"/>
-      <c r="C53" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D53" s="5">
-        <v>4</v>
-      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="5"/>
       <c r="E53" s="6"/>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="1:6" ht="27" customHeight="1">
-      <c r="A54" s="22" t="s">
+    <row r="54" spans="1:6" ht="15">
+      <c r="A54" s="18">
+        <v>29</v>
+      </c>
+      <c r="B54" s="18"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" spans="1:6" ht="15">
+      <c r="A55" s="18">
+        <v>30</v>
+      </c>
+      <c r="B55" s="18"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="7"/>
+    </row>
+    <row r="56" spans="1:6" ht="15">
+      <c r="A56" s="18">
+        <v>31</v>
+      </c>
+      <c r="B56" s="18"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="1:6" ht="15">
+      <c r="A57" s="18">
+        <v>32</v>
+      </c>
+      <c r="B57" s="18"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" spans="1:6" ht="15">
+      <c r="A58" s="18">
+        <v>33</v>
+      </c>
+      <c r="B58" s="18"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="1:6" ht="15">
+      <c r="A59" s="18">
+        <v>34</v>
+      </c>
+      <c r="B59" s="18"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="1:6" ht="15">
+      <c r="A60" s="18">
+        <v>35</v>
+      </c>
+      <c r="B60" s="18"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="1:6" ht="15">
+      <c r="A61" s="18">
+        <v>36</v>
+      </c>
+      <c r="B61" s="18"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" spans="1:6" ht="15">
+      <c r="A62" s="18">
+        <v>37</v>
+      </c>
+      <c r="B62" s="18"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="1:6" ht="27" customHeight="1">
+      <c r="A63" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="14">
-        <f>SUM(D15:D53)/22</f>
-        <v>6.4909090909090903</v>
-      </c>
-      <c r="E54" s="14">
-        <f>SUM(E15:E53)/22</f>
-        <v>0</v>
-      </c>
-      <c r="F54" s="23"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="24" t="s">
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14">
+        <f>SUM(E15:E62)/22</f>
+        <v>0</v>
+      </c>
+      <c r="F63" s="23"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="55"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="25"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="19">
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="A13:F13"/>
@@ -2011,11 +2193,6 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.55000000000000004" right="0.196527777777778" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
@@ -2050,45 +2227,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="39" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44" t="s">
+      <c r="F1" s="51"/>
+      <c r="G1" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="43" t="s">
+      <c r="H1" s="55"/>
+      <c r="I1" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43" t="s">
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="44" t="s">
+      <c r="M1" s="51"/>
+      <c r="N1" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="45"/>
-      <c r="P1" s="44" t="s">
+      <c r="O1" s="55"/>
+      <c r="P1" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="43" t="s">
+      <c r="Q1" s="54"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="51" t="s">
         <v>74</v>
       </c>
       <c r="W1" s="12"/>
@@ -2096,10 +2273,10 @@
       <c r="Y1" s="12"/>
     </row>
     <row r="2" spans="1:25" ht="26">
-      <c r="A2" s="43"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
       <c r="E2" s="3" t="s">
         <v>75</v>
       </c>
@@ -2142,7 +2319,7 @@
       <c r="R2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="S2" s="50"/>
+      <c r="S2" s="52"/>
       <c r="T2" s="12"/>
       <c r="U2" s="12"/>
       <c r="V2" s="13"/>
@@ -2154,7 +2331,7 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="6" t="s">
         <v>126</v>
       </c>
@@ -2212,7 +2389,7 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="6" t="s">
         <v>27</v>
       </c>
@@ -2270,7 +2447,7 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="49"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="6" t="s">
         <v>28</v>
       </c>
@@ -2328,7 +2505,7 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="49"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="6" t="s">
         <v>29</v>
       </c>
@@ -2386,7 +2563,7 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="49"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="6" t="s">
         <v>30</v>
       </c>
@@ -2444,7 +2621,7 @@
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="6" t="s">
         <v>31</v>
       </c>
@@ -2502,7 +2679,7 @@
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="49"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="6" t="s">
         <v>32</v>
       </c>
@@ -2560,7 +2737,7 @@
       <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="49"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="6" t="s">
         <v>33</v>
       </c>
@@ -2618,7 +2795,7 @@
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="49"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="6" t="s">
         <v>34</v>
       </c>
@@ -2676,7 +2853,7 @@
       <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="49"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="6" t="s">
         <v>35</v>
       </c>
@@ -2734,7 +2911,7 @@
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="49"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="6" t="s">
         <v>36</v>
       </c>
@@ -2792,7 +2969,7 @@
       <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="49"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="6" t="s">
         <v>37</v>
       </c>
@@ -2850,7 +3027,7 @@
       <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="49"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="6" t="s">
         <v>38</v>
       </c>
@@ -2908,7 +3085,7 @@
       <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="49"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="6" t="s">
         <v>39</v>
       </c>
@@ -2966,7 +3143,7 @@
       <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="49"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="6" t="s">
         <v>40</v>
       </c>
@@ -3024,7 +3201,7 @@
       <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="49"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="6" t="s">
         <v>41</v>
       </c>
@@ -3082,7 +3259,7 @@
       <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="49"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="6" t="s">
         <v>42</v>
       </c>
@@ -3140,7 +3317,7 @@
       <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B20" s="49"/>
+      <c r="B20" s="58"/>
       <c r="C20" s="6" t="s">
         <v>43</v>
       </c>
@@ -3198,7 +3375,7 @@
       <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="49"/>
+      <c r="B21" s="58"/>
       <c r="C21" s="6" t="s">
         <v>44</v>
       </c>
@@ -3256,7 +3433,7 @@
       <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B22" s="49"/>
+      <c r="B22" s="58"/>
       <c r="C22" s="6" t="s">
         <v>45</v>
       </c>
@@ -3314,7 +3491,7 @@
       <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="49"/>
+      <c r="B23" s="58"/>
       <c r="C23" s="6" t="s">
         <v>46</v>
       </c>
@@ -3372,7 +3549,7 @@
       <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="B24" s="49"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="6" t="s">
         <v>47</v>
       </c>
@@ -3430,7 +3607,7 @@
       <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="49"/>
+      <c r="B25" s="58"/>
       <c r="C25" s="6" t="s">
         <v>48</v>
       </c>
@@ -3488,7 +3665,7 @@
       <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="B26" s="49"/>
+      <c r="B26" s="58"/>
       <c r="C26" s="6" t="s">
         <v>49</v>
       </c>
@@ -3546,7 +3723,7 @@
       <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="49"/>
+      <c r="B27" s="58"/>
       <c r="C27" s="6" t="s">
         <v>50</v>
       </c>
@@ -3604,7 +3781,7 @@
       <c r="A28" s="5">
         <v>26</v>
       </c>
-      <c r="B28" s="49"/>
+      <c r="B28" s="58"/>
       <c r="C28" s="6" t="s">
         <v>51</v>
       </c>
@@ -3662,7 +3839,7 @@
       <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="B29" s="49"/>
+      <c r="B29" s="58"/>
       <c r="C29" s="6" t="s">
         <v>52</v>
       </c>
@@ -3720,7 +3897,7 @@
       <c r="A30" s="5">
         <v>28</v>
       </c>
-      <c r="B30" s="49"/>
+      <c r="B30" s="58"/>
       <c r="C30" s="6" t="s">
         <v>53</v>
       </c>
@@ -3778,7 +3955,7 @@
       <c r="A31" s="5">
         <v>29</v>
       </c>
-      <c r="B31" s="49"/>
+      <c r="B31" s="58"/>
       <c r="C31" s="6" t="s">
         <v>54</v>
       </c>
@@ -3836,7 +4013,7 @@
       <c r="A32" s="5">
         <v>30</v>
       </c>
-      <c r="B32" s="49"/>
+      <c r="B32" s="58"/>
       <c r="C32" s="6" t="s">
         <v>55</v>
       </c>
@@ -3894,7 +4071,7 @@
       <c r="A33" s="5">
         <v>31</v>
       </c>
-      <c r="B33" s="49"/>
+      <c r="B33" s="58"/>
       <c r="C33" s="6" t="s">
         <v>56</v>
       </c>
@@ -3952,7 +4129,7 @@
       <c r="A34" s="5">
         <v>32</v>
       </c>
-      <c r="B34" s="49"/>
+      <c r="B34" s="58"/>
       <c r="C34" s="6" t="s">
         <v>57</v>
       </c>
@@ -4010,7 +4187,7 @@
       <c r="A35" s="5">
         <v>33</v>
       </c>
-      <c r="B35" s="49"/>
+      <c r="B35" s="58"/>
       <c r="C35" s="6" t="s">
         <v>58</v>
       </c>
@@ -4068,7 +4245,7 @@
       <c r="A36" s="5">
         <v>34</v>
       </c>
-      <c r="B36" s="49"/>
+      <c r="B36" s="58"/>
       <c r="C36" s="6" t="s">
         <v>59</v>
       </c>
@@ -4126,7 +4303,7 @@
       <c r="A37" s="5">
         <v>35</v>
       </c>
-      <c r="B37" s="49"/>
+      <c r="B37" s="58"/>
       <c r="C37" s="6" t="s">
         <v>60</v>
       </c>
@@ -4184,7 +4361,7 @@
       <c r="A38" s="5">
         <v>36</v>
       </c>
-      <c r="B38" s="49"/>
+      <c r="B38" s="58"/>
       <c r="C38" s="6" t="s">
         <v>61</v>
       </c>
@@ -4242,7 +4419,7 @@
       <c r="A39" s="5">
         <v>37</v>
       </c>
-      <c r="B39" s="49"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="6" t="s">
         <v>62</v>
       </c>
@@ -4300,7 +4477,7 @@
       <c r="A40" s="5">
         <v>38</v>
       </c>
-      <c r="B40" s="49"/>
+      <c r="B40" s="58"/>
       <c r="C40" s="6"/>
       <c r="D40" s="7"/>
       <c r="E40" s="6"/>
@@ -4323,7 +4500,7 @@
       <c r="A41" s="5">
         <v>39</v>
       </c>
-      <c r="B41" s="49"/>
+      <c r="B41" s="58"/>
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
       <c r="E41" s="6"/>
@@ -4346,7 +4523,7 @@
       <c r="A42" s="5">
         <v>40</v>
       </c>
-      <c r="B42" s="49"/>
+      <c r="B42" s="58"/>
       <c r="C42" s="6"/>
       <c r="D42" s="7"/>
       <c r="E42" s="6"/>
